--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249323</v>
+        <v>249324</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036451686</v>
+        <v>1036461686</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20790</v>
+        <v>20791</v>
       </c>
       <c r="D6" t="n">
         <v>3261</v>
       </c>
       <c r="E6" t="n">
-        <v>360526402</v>
+        <v>360546521</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7007</v>
+        <v>7008</v>
       </c>
       <c r="D7" t="n">
         <v>1200</v>
       </c>
       <c r="E7" t="n">
-        <v>289917074</v>
+        <v>290033265</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14340</v>
+        <v>14345</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36138048</v>
+        <v>36146424</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20316077</v>
+        <v>20331329</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15717</v>
+        <v>15723</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24651442</v>
+        <v>24657676</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D74" t="n">
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>4168041</v>
+        <v>4175586</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116589</v>
+        <v>116591</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447328195</v>
+        <v>447355948</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151088</v>
+        <v>151092</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482036290</v>
+        <v>482061222</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408974</v>
+        <v>408987</v>
       </c>
       <c r="D92" t="n">
-        <v>70903</v>
+        <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593325660</v>
+        <v>1593473857</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94127</v>
+        <v>94135</v>
       </c>
       <c r="D94" t="n">
         <v>13794</v>
       </c>
       <c r="E94" t="n">
-        <v>915011909</v>
+        <v>915375566</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50699</v>
+        <v>50704</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>929340298</v>
+        <v>929563081</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17224</v>
+        <v>17226</v>
       </c>
       <c r="D96" t="n">
         <v>2564</v>
       </c>
       <c r="E96" t="n">
-        <v>787738667</v>
+        <v>787987719</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D98" t="n">
         <v>181</v>
       </c>
       <c r="E98" t="n">
-        <v>117420097</v>
+        <v>117608252</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D102" t="n">
         <v>23</v>
       </c>
       <c r="E102" t="n">
-        <v>18889236</v>
+        <v>19689236</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4715,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8164</v>
+        <v>8168</v>
       </c>
       <c r="D105" t="n">
         <v>1913</v>
       </c>
       <c r="E105" t="n">
-        <v>16862003</v>
+        <v>16867318</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18333</v>
+        <v>18336</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>41276024</v>
+        <v>41281761</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6384</v>
+        <v>6386</v>
       </c>
       <c r="D107" t="n">
         <v>1894</v>
       </c>
       <c r="E107" t="n">
-        <v>21931803</v>
+        <v>21935846</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D110" t="n">
         <v>71</v>
       </c>
       <c r="E110" t="n">
-        <v>16373789</v>
+        <v>16566525</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D111" t="n">
         <v>17</v>
       </c>
       <c r="E111" t="n">
-        <v>7544279</v>
+        <v>7718509</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11685</v>
+        <v>11689</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32906669</v>
+        <v>32938514</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168967</v>
+        <v>168971</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681734390</v>
+        <v>681755958</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>64954</v>
+        <v>64956</v>
       </c>
       <c r="D143" t="n">
         <v>13059</v>
       </c>
       <c r="E143" t="n">
-        <v>373524790</v>
+        <v>373529758</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11830</v>
+        <v>11831</v>
       </c>
       <c r="D145" t="n">
         <v>1969</v>
       </c>
       <c r="E145" t="n">
-        <v>182679390</v>
+        <v>182701622</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>83801</v>
+        <v>83802</v>
       </c>
       <c r="D165" t="n">
         <v>17112</v>
       </c>
       <c r="E165" t="n">
-        <v>354961515</v>
+        <v>354971515</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35928</v>
+        <v>35929</v>
       </c>
       <c r="D166" t="n">
         <v>7079</v>
       </c>
       <c r="E166" t="n">
-        <v>210573826</v>
+        <v>210575326</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>22699</v>
+        <v>22700</v>
       </c>
       <c r="D172" t="n">
         <v>5292</v>
       </c>
       <c r="E172" t="n">
-        <v>44669168</v>
+        <v>44672707</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80777</v>
+        <v>80778</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>485996075</v>
+        <v>486144839</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14706</v>
+        <v>14707</v>
       </c>
       <c r="D177" t="n">
         <v>2256</v>
       </c>
       <c r="E177" t="n">
-        <v>251083376</v>
+        <v>251104307</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="D178" t="n">
         <v>815</v>
       </c>
       <c r="E178" t="n">
-        <v>212904810</v>
+        <v>212940437</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
